--- a/centit-report-utils/src/test/resources/template.xlsx
+++ b/centit-report-utils/src/test/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codefan/projects/centit/centit-commons/centit-report-utils/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42E2EBD-0591-A64E-BE01-93366862CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB305F6-DBB8-F24A-ABF6-C5172C0FEC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7640" yWindow="9180" windowWidth="23260" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>${employee.name}</t>
   </si>
   <si>
-    <t>${employee.payment}</t>
-  </si>
-  <si>
     <t>${employee.bonus}</t>
   </si>
   <si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>Date:${utils:formatDate(nowdate)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${utils:capitalRMB(employee.payment)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,20 +517,20 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -537,7 +538,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -562,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/centit-report-utils/src/test/resources/template.xlsx
+++ b/centit-report-utils/src/test/resources/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codefan/projects/centit/centit-commons/centit-report-utils/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\java\centit\centit-commons\centit-report-utils\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB305F6-DBB8-F24A-ABF6-C5172C0FEC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F02C9BC-914E-42D4-8D1F-D8777AA6F3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="9180" windowWidth="23260" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
+    <author>杨淮生</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -47,17 +48,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="D4")</t>
+jx:area(lastCell="D5")</t>
         </r>
       </text>
     </comment>
@@ -83,17 +74,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+jx:each(items="employees" var="employee" lastCell="D5")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{C35A4001-FB23-4BCD-8B4C-81270B17A0DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨淮生:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="employees" var="employee" lastCell="D4")</t>
+          <t xml:space="preserve">
+jx:each(items="employee.education" var="edu" lastCell="C5")</t>
         </r>
       </text>
     </comment>
@@ -102,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -113,28 +120,38 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>Bonus</t>
-  </si>
-  <si>
     <t>${employee.name}</t>
   </si>
   <si>
-    <t>${employee.bonus}</t>
-  </si>
-  <si>
     <t>Object Collection Demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${utils:formatDate(employee.birthDate,"yyyy-MM-dd")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date:${utils:formatDate(nowdate)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${utils:capitalRMB(employee.payment)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date:${utils:formatDate(nowDate)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${edu.school}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${edu.graduationTime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.image}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${utils:formatDate("yyyy-MM-dd", employee.birthday)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +199,21 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -215,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +265,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,37 +555,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,28 +595,40 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/centit-report-utils/src/test/resources/template.xlsx
+++ b/centit-report-utils/src/test/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codefan/projects/centit/centit-commons/centit-report-utils/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB305F6-DBB8-F24A-ABF6-C5172C0FEC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58655E33-3A1E-EF43-8323-AA1266D6AACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7640" yWindow="9180" windowWidth="23260" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,27 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="D4")</t>
+          <t>jx:area(lastCell="D</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>")</t>
         </r>
       </text>
     </comment>
@@ -93,7 +113,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="employees" var="employee" lastCell="D4")</t>
+          <t>jx:each(items="employees" var="employee" lastCell="D5")</t>
         </r>
       </text>
     </comment>
@@ -102,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -135,6 +155,10 @@
   </si>
   <si>
     <t>${utils:capitalRMB(employee.payment)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-------</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +247,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -529,20 +556,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -568,7 +595,12 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
